--- a/SPPSApi/Doc/Template/FS0300.xlsx
+++ b/SPPSApi/Doc/Template/FS0300.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPPS\SPPS_API\SPPSApi\Doc\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12602F87-837C-4E0A-8D05-D0C229AF09B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3970FB81-9CFD-4B48-889E-E7EF48E4E225}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4128" yWindow="2856" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3624" yWindow="3144" windowWidth="17304" windowHeight="8988" xr2:uid="{B22BCCB8-30C1-422E-BFF0-4BDF16AE850B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,6 @@
   </si>
   <si>
     <t>箱种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>原价</t>
@@ -140,7 +139,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,7 +158,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -173,14 +180,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{6CD02481-034A-480C-A2CA-982A6B3CEA02}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -196,7 +210,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -212,7 +226,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -224,7 +238,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -241,7 +255,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -271,12 +285,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -306,6 +337,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,130 +505,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE339B05-EF95-48E2-BADA-18748B9F26E2}">
   <dimension ref="A1:AJ1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection sqref="A1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SPPSApi/Doc/Template/FS0300.xlsx
+++ b/SPPSApi/Doc/Template/FS0300.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPPS\SPPS_API\SPPSApi\Doc\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3970FB81-9CFD-4B48-889E-E7EF48E4E225}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AC0990-245B-4619-8B92-1E644CFDE779}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3624" yWindow="3144" windowWidth="17304" windowHeight="8988" xr2:uid="{B22BCCB8-30C1-422E-BFF0-4BDF16AE850B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B22BCCB8-30C1-422E-BFF0-4BDF16AE850B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>所属原单位</t>
   </si>
@@ -133,13 +133,19 @@
   </si>
   <si>
     <t>包装厂代码</t>
+  </si>
+  <si>
+    <t>供应商名称</t>
+  </si>
+  <si>
+    <t>受入</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,9 +162,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -180,21 +214,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{6CD02481-034A-480C-A2CA-982A6B3CEA02}"/>
+    <cellStyle name="常规 2 2" xfId="3" xr:uid="{6F293EEB-5046-4250-84B5-06F6AEAC4445}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{72C4E1F4-7756-40E7-B6B4-AB0D89DE1C14}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -506,15 +547,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE339B05-EF95-48E2-BADA-18748B9F26E2}">
-  <dimension ref="A1:AJ1"/>
+  <dimension ref="A1:AL1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AJ1"/>
+      <selection activeCell="A2" sqref="A2:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,57 +616,63 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SPPSApi/Doc/Template/FS0300.xlsx
+++ b/SPPSApi/Doc/Template/FS0300.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPPS\SPPS_API\SPPSApi\Doc\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AC0990-245B-4619-8B92-1E644CFDE779}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52646804-F0D6-48A4-94B4-246D28107973}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B22BCCB8-30C1-422E-BFF0-4BDF16AE850B}"/>
+    <workbookView xWindow="5136" yWindow="3420" windowWidth="17256" windowHeight="8940" xr2:uid="{B22BCCB8-30C1-422E-BFF0-4BDF16AE850B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE339B05-EF95-48E2-BADA-18748B9F26E2}">
   <dimension ref="A1:AL1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -665,10 +665,10 @@
         <v>33</v>
       </c>
       <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
